--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
@@ -10,7 +10,7 @@
     <sheet name="brush" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
     <author>pc</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -85,9 +85,6 @@
     <t>unit_lv</t>
   </si>
   <si>
-    <t>unit_lv_random</t>
-  </si>
-  <si>
     <t>unit_count</t>
   </si>
   <si>
@@ -107,6 +104,47 @@
   </si>
   <si>
     <t>怪物名称（策）</t>
+  </si>
+  <si>
+    <t>单位等级</t>
+  </si>
+  <si>
+    <t>怪物数量</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>难度1</t>
+  </si>
+  <si>
+    <t>我方</t>
+  </si>
+  <si>
+    <t>剑士</t>
+  </si>
+  <si>
+    <t>火枪手</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>cehua_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cehua_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -117,7 +155,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>刷怪组</t>
+      <t>单位</t>
     </r>
     <r>
       <rPr>
@@ -126,44 +164,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
+      <t>id</t>
     </r>
-  </si>
-  <si>
-    <t>单位等级</t>
-  </si>
-  <si>
-    <t>等级随机提高值</t>
-  </si>
-  <si>
-    <t>怪物数量</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>难度1</t>
-  </si>
-  <si>
-    <t>我方</t>
-  </si>
-  <si>
-    <t>剑士</t>
-  </si>
-  <si>
-    <t>火枪手</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>食尸鬼</t>
-  </si>
-  <si>
-    <t>蜘蛛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -250,7 +253,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -574,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -585,26 +595,28 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="8" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -614,87 +626,78 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>1001</v>
@@ -703,21 +706,18 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="2">
         <v>1002</v>
       </c>
@@ -725,30 +725,27 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="5">
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>1001</v>
@@ -757,21 +754,18 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="2">
         <v>1002</v>
       </c>
@@ -779,30 +773,27 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="5">
         <v>1003</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2">
         <v>1001</v>
@@ -811,21 +802,18 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="2">
         <v>1002</v>
       </c>
@@ -833,30 +821,27 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="5">
         <v>1003</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
         <v>1001</v>
@@ -865,21 +850,18 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="2">
         <v>1002</v>
       </c>
@@ -887,30 +869,27 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="5">
         <v>2001</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2">
         <v>2001</v>
@@ -919,21 +898,18 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="2">
         <v>2002</v>
       </c>
@@ -941,30 +917,27 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="5">
         <v>2002</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2">
         <v>2001</v>
@@ -973,21 +946,18 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="2">
         <v>2002</v>
       </c>
@@ -995,30 +965,27 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="5">
         <v>2003</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2">
         <v>2001</v>
@@ -1027,21 +994,18 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="2">
         <v>2002</v>
       </c>
@@ -1049,30 +1013,27 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2">
         <v>2001</v>
@@ -1081,21 +1042,18 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="2">
         <v>2002</v>
       </c>
@@ -1103,15 +1061,12 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F1">
+  <conditionalFormatting sqref="F1 C1">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G5">

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="brush" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>pc</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>参数：我方/敌方</t>
+          <t>(boss,enemy,minio)</t>
         </r>
       </text>
     </comment>
@@ -65,21 +65,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>cehua_1</t>
+  </si>
+  <si>
     <t>difficulty</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>camp</t>
-  </si>
-  <si>
-    <t>unit_id</t>
+    <t>unit_type</t>
+  </si>
+  <si>
+    <t>unit_cname</t>
   </si>
   <si>
     <t>unit_lv</t>
@@ -100,10 +103,10 @@
     <t>时间</t>
   </si>
   <si>
-    <t>阵营</t>
-  </si>
-  <si>
-    <t>怪物名称（策）</t>
+    <t>单位类型</t>
+  </si>
+  <si>
+    <t>单位中文名(对应unit表)</t>
   </si>
   <si>
     <t>单位等级</t>
@@ -118,62 +121,54 @@
     <t>string</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>难度1</t>
   </si>
   <si>
-    <t>我方</t>
-  </si>
-  <si>
     <t>剑士</t>
   </si>
   <si>
-    <t>火枪手</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>食尸鬼</t>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-  </si>
-  <si>
-    <t>cehua_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cehua_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>minio</t>
+  </si>
+  <si>
+    <t>食尸鬼|蜘蛛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位</t>
+      <t>2|</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>id</t>
+      <t>2</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +188,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -230,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,14 +256,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -584,514 +649,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="9" width="11.5" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2">
-        <v>1002</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1001</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2">
-        <v>1002</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1001</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2">
-        <v>1002</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2001</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2">
-        <v>2002</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2001</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2">
-        <v>2002</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2001</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2">
-        <v>2002</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>20</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2001</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2">
-        <v>2002</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F1 C1">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G7">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G11">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G17">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F4">
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1107,7 +893,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>3|2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cehua</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -269,49 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -652,7 +614,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -720,7 +682,9 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
@@ -847,37 +811,37 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
@@ -130,9 +130,6 @@
     <t>难度1</t>
   </si>
   <si>
-    <t>剑士</t>
-  </si>
-  <si>
     <t>enemy</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   <si>
     <t>cehua</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -744,16 +744,16 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
@@ -770,10 +770,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -796,16 +796,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/brushMonster.xlsx
@@ -273,42 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -614,7 +579,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -718,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>27</v>
@@ -744,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -770,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -796,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
@@ -811,37 +776,22 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4">
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
